--- a/Data Science/LCS/Players/Wind.xlsx
+++ b/Data Science/LCS/Players/Wind.xlsx
@@ -14,11 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
+  <si>
+    <t>datacompleteness</t>
+  </si>
   <si>
     <t>league</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>playoffs</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
@@ -106,15 +115,15 @@
     <t>opp_elementaldrakes</t>
   </si>
   <si>
-    <t>dragons (type unknown)</t>
-  </si>
-  <si>
     <t>elders</t>
   </si>
   <si>
     <t>opp_elders</t>
   </si>
   <si>
+    <t>firstherald</t>
+  </si>
+  <si>
     <t>heralds</t>
   </si>
   <si>
@@ -269,6 +278,9 @@
   </si>
   <si>
     <t>csdiffat15</t>
+  </si>
+  <si>
+    <t>complete</t>
   </si>
   <si>
     <t>LCS</t>
@@ -650,13 +662,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CH3"/>
+  <dimension ref="A1:CK3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:86">
+    <row r="1" spans="1:89">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,325 +924,343 @@
       <c r="CH1" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="2" spans="1:86">
+    <row r="2" spans="1:89">
       <c r="A2" s="1">
-        <v>5384</v>
+        <v>10448</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2">
+        <v>2020</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>10.04</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" t="s">
-        <v>89</v>
       </c>
       <c r="H2" t="s">
         <v>90</v>
       </c>
       <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2">
+        <v>3051</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>11</v>
+      </c>
+      <c r="R2">
+        <v>14</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>0.2753</v>
+      </c>
+      <c r="AC2">
+        <v>0.4326</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>36089</v>
+      </c>
+      <c r="AY2">
+        <v>709.7148</v>
+      </c>
+      <c r="AZ2">
+        <v>0.350453</v>
+      </c>
+      <c r="BA2">
+        <v>21</v>
+      </c>
+      <c r="BB2">
+        <v>0.413</v>
+      </c>
+      <c r="BC2">
+        <v>16</v>
+      </c>
+      <c r="BD2">
+        <v>0.3147</v>
+      </c>
+      <c r="BE2">
+        <v>8</v>
+      </c>
+      <c r="BF2">
+        <v>73</v>
+      </c>
+      <c r="BG2">
+        <v>1.4356</v>
+      </c>
+      <c r="BH2">
+        <v>20593</v>
+      </c>
+      <c r="BI2">
+        <v>14093</v>
+      </c>
+      <c r="BJ2">
+        <v>277.1485</v>
+      </c>
+      <c r="BK2">
+        <v>0.250456</v>
+      </c>
+      <c r="BL2">
+        <v>19510</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>448</v>
+      </c>
+      <c r="BO2">
+        <v>402</v>
+      </c>
+      <c r="BP2">
+        <v>46</v>
+      </c>
+      <c r="BQ2">
+        <v>36</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>8.8102</v>
+      </c>
+      <c r="BT2">
+        <v>3475</v>
+      </c>
+      <c r="BU2">
+        <v>3571</v>
+      </c>
+      <c r="BV2">
+        <v>86</v>
+      </c>
+      <c r="BW2">
+        <v>3628</v>
+      </c>
+      <c r="BX2">
+        <v>2708</v>
+      </c>
+      <c r="BY2">
+        <v>73</v>
+      </c>
+      <c r="BZ2">
+        <v>-153</v>
+      </c>
+      <c r="CA2">
+        <v>863</v>
+      </c>
+      <c r="CB2">
+        <v>13</v>
+      </c>
+      <c r="CC2">
+        <v>5323</v>
+      </c>
+      <c r="CD2">
+        <v>5886</v>
+      </c>
+      <c r="CE2">
+        <v>137</v>
+      </c>
+      <c r="CF2">
+        <v>5496</v>
+      </c>
+      <c r="CG2">
+        <v>4987</v>
+      </c>
+      <c r="CH2">
+        <v>130</v>
+      </c>
+      <c r="CI2">
+        <v>-173</v>
+      </c>
+      <c r="CJ2">
+        <v>899</v>
+      </c>
+      <c r="CK2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:89">
+      <c r="A3" s="1">
+        <v>10911</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3">
+        <v>2020</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>10.04</v>
+      </c>
+      <c r="H3" t="s">
         <v>91</v>
-      </c>
-      <c r="J2">
-        <v>3051</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2">
-        <v>11</v>
-      </c>
-      <c r="O2">
-        <v>14</v>
-      </c>
-      <c r="P2">
-        <v>8</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>0.2753</v>
-      </c>
-      <c r="Z2">
-        <v>0.4326</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>36089</v>
-      </c>
-      <c r="AV2">
-        <v>709.7148</v>
-      </c>
-      <c r="AW2">
-        <v>0.350453</v>
-      </c>
-      <c r="AX2">
-        <v>21</v>
-      </c>
-      <c r="AY2">
-        <v>0.413</v>
-      </c>
-      <c r="AZ2">
-        <v>16</v>
-      </c>
-      <c r="BA2">
-        <v>0.3147</v>
-      </c>
-      <c r="BB2">
-        <v>8</v>
-      </c>
-      <c r="BC2">
-        <v>73</v>
-      </c>
-      <c r="BD2">
-        <v>1.4356</v>
-      </c>
-      <c r="BE2">
-        <v>20593</v>
-      </c>
-      <c r="BF2">
-        <v>14093</v>
-      </c>
-      <c r="BG2">
-        <v>277.1485</v>
-      </c>
-      <c r="BH2">
-        <v>0.250456</v>
-      </c>
-      <c r="BI2">
-        <v>19510</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>448</v>
-      </c>
-      <c r="BL2">
-        <v>402</v>
-      </c>
-      <c r="BM2">
-        <v>46</v>
-      </c>
-      <c r="BN2">
-        <v>36</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>8.8102</v>
-      </c>
-      <c r="BQ2">
-        <v>3475</v>
-      </c>
-      <c r="BR2">
-        <v>3571</v>
-      </c>
-      <c r="BS2">
-        <v>86</v>
-      </c>
-      <c r="BT2">
-        <v>3628</v>
-      </c>
-      <c r="BU2">
-        <v>2708</v>
-      </c>
-      <c r="BV2">
-        <v>73</v>
-      </c>
-      <c r="BW2">
-        <v>-153</v>
-      </c>
-      <c r="BX2">
-        <v>863</v>
-      </c>
-      <c r="BY2">
-        <v>13</v>
-      </c>
-      <c r="BZ2">
-        <v>5323</v>
-      </c>
-      <c r="CA2">
-        <v>5886</v>
-      </c>
-      <c r="CB2">
-        <v>137</v>
-      </c>
-      <c r="CC2">
-        <v>5496</v>
-      </c>
-      <c r="CD2">
-        <v>4987</v>
-      </c>
-      <c r="CE2">
-        <v>130</v>
-      </c>
-      <c r="CF2">
-        <v>-173</v>
-      </c>
-      <c r="CG2">
-        <v>899</v>
-      </c>
-      <c r="CH2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:86">
-      <c r="A3" s="1">
-        <v>5631</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>10.04</v>
-      </c>
-      <c r="E3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" t="s">
-        <v>90</v>
       </c>
       <c r="I3" t="s">
         <v>92</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3">
         <v>1736</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>3</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>3</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>13</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
       <c r="T3">
         <v>0</v>
       </c>
@@ -1247,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
         <v>0.1037</v>
       </c>
-      <c r="Z3">
-        <v>0.5529999999999999</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.553</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -1310,126 +1340,135 @@
         <v>0</v>
       </c>
       <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
         <v>1</v>
       </c>
-      <c r="AU3">
+      <c r="AX3">
         <v>10796</v>
       </c>
-      <c r="AV3">
+      <c r="AY3">
         <v>373.1336</v>
       </c>
-      <c r="AW3">
+      <c r="AZ3">
         <v>0.280627</v>
       </c>
-      <c r="AX3">
+      <c r="BA3">
         <v>6</v>
       </c>
-      <c r="AY3">
+      <c r="BB3">
         <v>0.2074</v>
       </c>
-      <c r="AZ3">
+      <c r="BC3">
         <v>4</v>
       </c>
-      <c r="BA3">
+      <c r="BD3">
         <v>0.1382</v>
       </c>
-      <c r="BB3">
+      <c r="BE3">
         <v>2</v>
       </c>
-      <c r="BC3">
+      <c r="BF3">
         <v>19</v>
       </c>
-      <c r="BD3">
+      <c r="BG3">
         <v>0.6567</v>
       </c>
-      <c r="BE3">
+      <c r="BH3">
         <v>9113</v>
       </c>
-      <c r="BF3">
+      <c r="BI3">
         <v>5296</v>
       </c>
-      <c r="BG3">
+      <c r="BJ3">
         <v>183.0415</v>
       </c>
-      <c r="BH3">
+      <c r="BK3">
         <v>0.227199</v>
       </c>
-      <c r="BI3">
+      <c r="BL3">
         <v>8550</v>
       </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
         <v>219</v>
       </c>
-      <c r="BL3">
+      <c r="BO3">
         <v>219</v>
       </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
       <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
         <v>7.5691</v>
       </c>
-      <c r="BQ3">
+      <c r="BT3">
         <v>3199</v>
       </c>
-      <c r="BR3">
+      <c r="BU3">
         <v>3007</v>
       </c>
-      <c r="BS3">
+      <c r="BV3">
         <v>83</v>
       </c>
-      <c r="BT3">
+      <c r="BW3">
         <v>3289</v>
       </c>
-      <c r="BU3">
+      <c r="BX3">
         <v>3277</v>
       </c>
-      <c r="BV3">
+      <c r="BY3">
         <v>91</v>
       </c>
-      <c r="BW3">
+      <c r="BZ3">
         <v>-90</v>
       </c>
-      <c r="BX3">
+      <c r="CA3">
         <v>-270</v>
       </c>
-      <c r="BY3">
+      <c r="CB3">
         <v>-8</v>
       </c>
-      <c r="BZ3">
+      <c r="CC3">
         <v>4692</v>
       </c>
-      <c r="CA3">
+      <c r="CD3">
         <v>4605</v>
       </c>
-      <c r="CB3">
+      <c r="CE3">
         <v>123</v>
       </c>
-      <c r="CC3">
+      <c r="CF3">
         <v>5846</v>
       </c>
-      <c r="CD3">
+      <c r="CG3">
         <v>5912</v>
       </c>
-      <c r="CE3">
+      <c r="CH3">
         <v>153</v>
       </c>
-      <c r="CF3">
+      <c r="CI3">
         <v>-1154</v>
       </c>
-      <c r="CG3">
+      <c r="CJ3">
         <v>-1307</v>
       </c>
-      <c r="CH3">
+      <c r="CK3">
         <v>-30</v>
       </c>
     </row>
